--- a/data/financial_statements/sofp/JPM.xlsx
+++ b/data/financial_statements/sofp/JPM.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,2290 +590,2344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1336625000000</v>
+      </c>
+      <c r="C2">
         <v>1452552000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1456993000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1567935000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1436107000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1557931000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1486996000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1527605000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1327019000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1313193000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1276751000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1164694000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>882475000000.0001</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1009863000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1059275000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1135146000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1014095000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1056556000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1050484000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1074702000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1011570000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1063676000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1074795000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1053474000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>991732000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1025064000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>983365000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>967781000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>916919000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>977629000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1013622000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1147529000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1127099000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1064677000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1062124000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1039224000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>978602000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1021373000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>994509000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>952493000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>2577735000000</v>
+      </c>
+      <c r="C3">
         <v>2690905000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2688840000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2776235000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2600005000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2700791000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2633703000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2630665000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2402047000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2349064000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2295437000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2278889000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1939833000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2030834000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2091397000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2150098000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2058404000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>2076538000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2061317000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2068410000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1996392000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2025655000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2034237000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1996073000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1925051000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1963247000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1906853000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1858749000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1787268000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1831546000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1860596000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1967655000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1940329000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1868549000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1870877000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1827470000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1765916000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1798750000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1782273000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1734807000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>27734000000</v>
+      </c>
+      <c r="C4">
         <v>27199000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>26770000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>26916000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>27070000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>26996000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>26631000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>26926000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>27109000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>26672000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>26301000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>25882000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>25813000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>25117000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>24665000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>24160000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>14934000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>14180000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>14132000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>14382000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>14159000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>14218000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>14206000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>14227000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>14131000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>14208000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>14262000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>14195000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>14362000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>14709000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>15073000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>14963000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>15133000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>15177000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>15216000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>14919000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>14891000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>14876000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>14574000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>14541000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>816531000000.0001</v>
+      </c>
+      <c r="C5">
         <v>811462000000.0001</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>866111000000.0001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>904312000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>878303000000.0001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>798119000000.0001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>760013000000.0001</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>776910000000.0001</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>750634000000.0001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>673577000000.0001</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>701495000000.0001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>610983000000.0001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>537997000000.0001</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>532587000000.0001</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>437925000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>390551000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>373823000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>353832000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>341261000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>354320000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>355070000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>364968000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>354112000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>374159000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>385468000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>381598000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>381835000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>388260000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>389548000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>412328000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>416323000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>439512000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>458439000000.0001</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>485231000000.0001</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>475885000000.0001</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>473871000000.0001</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>465468000000.0001</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>478994000000.0001</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>471883000000.0001</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>479802000000.0001</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>60859000000</v>
+      </c>
+      <c r="C6">
         <v>60806000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>59360000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>58485000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>56691000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>56566000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>54655000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>54588000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>53428000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>51594000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>51669000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>51867000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>53341000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>53078000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>53302000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>54168000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>54349000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>54697000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>54535000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>54533000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>54392000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>53855000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>53880000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>54218000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>54246000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>53126000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>53292000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>53908000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>54948000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>55157000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>56138000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>55222000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>56275000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>57480000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>57796000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>58106000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>59313000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>59407000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>59343000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>58098000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>182884000000</v>
+      </c>
+      <c r="C7">
         <v>183512000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>200233000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>188739000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>181498000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>175104000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>209254000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>200247000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>151539000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>145169000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>138213000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>171810000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>130395000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>123045000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>120090000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>118211000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>121022000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>115936000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>118805000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>118140000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>113587000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>104378000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>106739000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>107613000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>112076000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>108850000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>109854000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>108696000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>105572000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>103381000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>101469000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>99796000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>102098000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>100568000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>100562000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>102620000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>110101000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>111282000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>111421000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>102101000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1088008000000</v>
+      </c>
+      <c r="C8">
         <v>1082979000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1152474000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1178452000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1143562000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1056785000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1050553000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1058671000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>982710000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>897012000000.0001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>917678000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>860542000000.0001</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>747546000000.0001</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>733827000000.0001</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>635982000000.0001</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>587090000000.0001</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>564128000000.0001</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>538645000000.0001</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>528733000000.0001</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>541375000000.0001</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>537208000000.0001</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>537419000000.0001</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>528937000000.0001</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>550217000000.0001</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>565921000000.0001</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>557782000000.0001</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>559243000000.0001</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>565059000000.0001</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>564430000000.0001</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>585575000000.0001</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>589003000000.0001</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>609493000000.0001</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>631945000000.0001</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>658456000000.0001</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>649459000000.0001</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>649516000000.0001</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>649773000000.0001</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>664559000000.0001</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>657221000000.0001</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>654542000000.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>3665743000000</v>
+      </c>
+      <c r="C9">
         <v>3773884000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3841314000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>3954687000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3743567000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3757576000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3684256000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3689336000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3384757000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>3246076000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3213115000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>3139431000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2687379000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>2764661000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2727379000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2737188000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2622532000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2615183000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2590050000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2609785000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2533600000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2563074000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>2563174000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>2546290000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>2490972000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>2521029000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>2466096000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>2423808000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>2351698000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>2417121000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>2449599000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>2577148000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>2572274000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>2527005000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2520336000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>2476986000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>2415689000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>2463309000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>2439494000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>2389349000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>246640000000</v>
+      </c>
+      <c r="C10">
         <v>287805000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>281141000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>281444000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>247934000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>305313000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>297375000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>358997000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>260417000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>278432000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>283661000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>285116000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>224595000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>296659000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>261573000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>293982000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>251596000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>246243000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>239211000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>241758000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>210718000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>193641000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>187828000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>198224000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>200109000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>180749000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>183323000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>178489000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>168240000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>199975000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>223135000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>252233000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>258445000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>258706000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>280365000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>278267000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>239011000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>272469000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>315593000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>307080000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>2640320000000</v>
+      </c>
+      <c r="C11">
         <v>2708631000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2784870000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2881878000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2725058000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2670957000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2602299000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2563178000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2375542000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2235672000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2161945000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2089883000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1772838000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1750324000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1740498000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1709614000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1667376000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1668469000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1649106000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1679256000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1633365000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1635791000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1628633000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1606199000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>1565722000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1566550000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1515593000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1498750000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1457353000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1461092000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1479081000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>1570044000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>1570366000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1545589000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1523636000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1485204000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>1482256000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1493385000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1414382000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1395596000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>287805000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>281141000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>281444000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>272282000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>305313000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>297375000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>358997000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>288957000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>278432000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>283661000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>285116000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>177976000000</v>
+      </c>
+      <c r="C13">
         <v>189878000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>190308000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>202083000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>164693000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>179543000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>183867000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>191349000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>170181000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>162493000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>165212000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>184196000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>119277000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>138343000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>147639000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>156907000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>144773000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>151150000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>149838000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>136537000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>123663000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>128535000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>133423000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>135488000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>136659000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>143269000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>158958000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>147282000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>126897000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>141474000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>139422000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>158273000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>152815000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>143256000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>138656000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>140609000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>137744000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>148119000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>148593000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>125726000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>3064936000000</v>
+      </c>
+      <c r="C14">
         <v>3186314000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3256319000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3365405000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3137685000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3155813000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3083541000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3113524000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2806140000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2676597000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2610818000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2559195000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2116710000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2185326000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2149710000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2160503000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2063745000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>2065862000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2038155000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2057551000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1967746000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1957967000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1949884000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1939911000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1902490000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1890568000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1857874000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1824521000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1752490000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1802541000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1841638000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1980550000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1981626000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1947551000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1942657000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1904080000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1859011000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1913973000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1878568000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1828402000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>295865000000</v>
+      </c>
+      <c r="C15">
         <v>287473000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>288212000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>293239000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>301005000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>298465000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>299926000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>279427000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>281685000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>279175000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>317003000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>299344000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>291498000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>296472000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>288869000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>290893000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>282031000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>270124000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>273114000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>274449000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>284080000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>318301000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>323909000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>313834000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>295245000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>333897000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>315572000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>310457000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>309756000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>320119000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>316754000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>309643000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>306601000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>300613000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>304642000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>306463000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>295883000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>293808000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>296597000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>295561000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>12610000000</v>
+      </c>
+      <c r="C16">
         <v>12079000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>10640000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>10144000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>10750000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>13257000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>14403000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15671000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>17578000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>19191000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>20828000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>19630000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>17841000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>18515000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>25585000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>25955000000</v>
-      </c>
-      <c r="Q16">
-        <v>20241000000</v>
       </c>
       <c r="R16">
         <v>20241000000</v>
       </c>
       <c r="S16">
+        <v>20241000000</v>
+      </c>
+      <c r="T16">
         <v>21323000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>21584000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>26081000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>28424000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>30898000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>36682000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>39047000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>42233000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>40227000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>38673000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>41879000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>48733000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>50002000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>51091000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>52320000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>47564000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>45723000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>46788000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>49617000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>48858000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>55090000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>58300000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>481660000000.0001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>495308000000.0001</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>516763000000.0001</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>419120000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>439885000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>472663000000.0001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>467994000000.0001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>394272000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>388414000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>387702000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>429554000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>308475000000</v>
+      </c>
+      <c r="C18">
         <v>299552000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>298852000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>303383000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>311755000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>311722000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>314329000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>295098000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>299263000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>298366000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>337831000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>318974000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>309339000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>314987000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>314454000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>316848000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>302272000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>290365000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>294437000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>296033000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>310161000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>346725000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>354807000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>350516000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>334292000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>376130000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>355799000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>349130000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>351635000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>368852000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>366756000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>360734000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>358921000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>348177000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>350365000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>353251000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>345500000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>342666000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>351687000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>353861000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>3373411000000</v>
+      </c>
+      <c r="C19">
         <v>3485866000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>3555171000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3668788000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3449440000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3467535000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3397870000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3408622000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3105403000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2974963000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2948649000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2878169000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2426049000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2500313000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2464164000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2477351000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2366017000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2356227000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2332592000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2353584000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2277907000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>2304692000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2304691000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2290427000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2236782000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2266698000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2213673000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2173651000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2104125000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2171393000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>2208394000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2341284000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2340547000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>2295728000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>2293022000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>2257331000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>2204511000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2256639000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>2230255000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2182263000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>89044000000</v>
+      </c>
+      <c r="C20">
         <v>88865000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>88614000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>88260000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>88415000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>88357000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>88194000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>88005000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>88394000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>88289000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>88125000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>87857000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>88522000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>88512000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>88359000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>88170000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>89162000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>89333000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>89392000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>89211000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>90579000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>90697000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>90604000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>90395000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>91627000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>92103000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>91974000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>91782000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>92500000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>92316000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>92204000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>92245000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>93270000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>93060000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>92879000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>92623000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>93828000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>93555000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>93416000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>93161000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>32838000000</v>
+        <v>27404000000</v>
       </c>
       <c r="C21">
         <v>32838000000</v>
@@ -2768,19 +2936,19 @@
         <v>32838000000</v>
       </c>
       <c r="E21">
-        <v>34838000000</v>
+        <v>32838000000</v>
       </c>
       <c r="F21">
         <v>34838000000</v>
       </c>
       <c r="G21">
+        <v>34838000000</v>
+      </c>
+      <c r="H21">
         <v>32838000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>31563000000</v>
-      </c>
-      <c r="I21">
-        <v>30063000000</v>
       </c>
       <c r="J21">
         <v>30063000000</v>
@@ -2792,25 +2960,25 @@
         <v>30063000000</v>
       </c>
       <c r="M21">
+        <v>30063000000</v>
+      </c>
+      <c r="N21">
         <v>26993000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>28363000000</v>
-      </c>
-      <c r="O21">
-        <v>26993000000</v>
       </c>
       <c r="P21">
         <v>26993000000</v>
       </c>
       <c r="Q21">
+        <v>26993000000</v>
+      </c>
+      <c r="R21">
         <v>26068000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>27764000000</v>
-      </c>
-      <c r="S21">
-        <v>26068000000</v>
       </c>
       <c r="T21">
         <v>26068000000</v>
@@ -2846,39 +3014,42 @@
         <v>26068000000</v>
       </c>
       <c r="AE21">
+        <v>26068000000</v>
+      </c>
+      <c r="AF21">
         <v>24918000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>21493000000</v>
-      </c>
-      <c r="AG21">
-        <v>20063000000</v>
       </c>
       <c r="AH21">
         <v>20063000000</v>
       </c>
       <c r="AI21">
+        <v>20063000000</v>
+      </c>
+      <c r="AJ21">
         <v>18463000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>15083000000</v>
-      </c>
-      <c r="AK21">
-        <v>11158000000</v>
       </c>
       <c r="AL21">
         <v>11158000000</v>
       </c>
       <c r="AM21">
+        <v>11158000000</v>
+      </c>
+      <c r="AN21">
         <v>11458000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>9958000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>4105000000</v>
@@ -2997,263 +3168,269 @@
       <c r="AN22">
         <v>4105000000</v>
       </c>
+      <c r="AO22">
+        <v>4105000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>296456000000</v>
+      </c>
+      <c r="C23">
         <v>288776000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>282445000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>277177000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>272268000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>265276000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>256983000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>248151000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>236990000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>228014000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>221732000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>220226000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>223211000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>217888000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>212093000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>205437000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>199202000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>195180000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>189881000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>183855000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>177676000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>175827000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>171488000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>166663000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>162440000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>157870000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>153749000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>149730000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>146420000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>143050000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>138294000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>134048000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>129977000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>127234000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>123497000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>119318000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>115756000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>112135000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>114216000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>109402000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>107336000000</v>
+      </c>
+      <c r="C24">
         <v>107432000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>107490000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>106914000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>105415000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>103498000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>98304000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>92151000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>88184000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>88287000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>88337000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>88386000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>83049000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>76299000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>69428000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>64289000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>60494000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>54980000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>50829000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>45954000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>42595000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>37985000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>33369000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>30424000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>28854000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>27268000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>25070000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>22289000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>21691000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>20541000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>19397000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>18436000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>17856000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>16430000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>15047000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>13729000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>14847000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>14652000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>14071000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>13010000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25">
-        <v>-11000000</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="K25">
         <v>-11000000</v>
       </c>
       <c r="L25">
-        <v>-21000000</v>
+        <v>-11000000</v>
       </c>
       <c r="M25">
         <v>-21000000</v>
@@ -3339,501 +3516,513 @@
       <c r="AN25">
         <v>-21000000</v>
       </c>
+      <c r="AO25">
+        <v>-21000000</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>264928000000</v>
+      </c>
+      <c r="C26">
         <v>255180000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>253305000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>253061000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>259289000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>255203000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>253548000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>249151000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>249291000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>241050000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>234403000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>231199000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>234337000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>235985000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>236222000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>232844000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>230447000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>231192000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>231390000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>230133000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>229625000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>232314000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>232415000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>229795000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>228122000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>228263000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>226355000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>224089000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>221505000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>219660000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>216287000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>214371000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>211664000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>211214000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>208851000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>204572000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>200020000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>195512000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>197781000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>197128000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>292332000000</v>
+      </c>
+      <c r="C27">
         <v>288018000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>286143000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>285899000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>294127000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>290041000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>286386000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>280714000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>279354000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>271113000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>264466000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>261262000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>261330000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>264348000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>263215000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>259837000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>256515000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>258956000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>257458000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>256201000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>255693000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>258382000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>258483000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>255863000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>254190000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>254331000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>252423000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>250157000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>247573000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>245728000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>241205000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>235864000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>231727000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>231277000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>227314000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>219655000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>211178000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>206670000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>209239000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>207086000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>3665743000000</v>
+      </c>
+      <c r="C28">
         <v>3773884000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>3841314000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>3954687000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3743567000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3757576000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>3684256000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>3689336000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>3384757000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>3246076000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>3213115000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>3139431000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2687379000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>2764661000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2727379000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>2737188000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2622532000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>2615183000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2590050000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>2609785000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>2533600000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>2563074000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>2563174000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>2546290000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>2490972000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>2521029000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>2466096000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>2423808000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>2351698000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>2417121000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>2449599000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>2577148000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>2572274000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>2527005000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>2520336000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>2476986000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>2415689000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>2463309000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>2439494000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>2389349000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>2934300000</v>
+      </c>
+      <c r="C29">
         <v>2933205000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2932572000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>2937050000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2944149000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2955266000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2988155000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>3027128000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>3049434000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>3048203000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>3047604000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>3047023000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>3084021000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3136485000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>3197485000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>3243973000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>3275766000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>3325411000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>3360884000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>3404777000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>3425299000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>3469726000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>3518964000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>3552804000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>3561190000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>3578264000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>3611982000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>3656659000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>3663475000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>3681130000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>3698067000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>3711087000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>3714789000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>3738189000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>3761281000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>3784713000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>3756108000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>3759189000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>3769018000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>3789778000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>3284000</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C30">
         <v>3284000</v>
@@ -3842,49 +4031,49 @@
         <v>3284000</v>
       </c>
       <c r="E30">
-        <v>3484000</v>
+        <v>3284000</v>
       </c>
       <c r="F30">
         <v>3484000</v>
       </c>
       <c r="G30">
+        <v>3484000</v>
+      </c>
+      <c r="H30">
         <v>3284000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>3156000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3006000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>3066000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>3006000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>3066000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2699000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2836000</v>
-      </c>
-      <c r="O30">
-        <v>2699000</v>
       </c>
       <c r="P30">
         <v>2699000</v>
       </c>
       <c r="Q30">
+        <v>2699000</v>
+      </c>
+      <c r="R30">
         <v>2607000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2776000</v>
-      </c>
-      <c r="S30">
-        <v>2607000</v>
       </c>
       <c r="T30">
         <v>2607000</v>
@@ -3920,399 +4109,411 @@
         <v>2607000</v>
       </c>
       <c r="AE30">
+        <v>2607000</v>
+      </c>
+      <c r="AF30">
         <v>2492000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>2149000</v>
-      </c>
-      <c r="AG30">
-        <v>2006000</v>
       </c>
       <c r="AH30">
         <v>2006000</v>
       </c>
       <c r="AI30">
+        <v>2006000</v>
+      </c>
+      <c r="AJ30">
         <v>1846000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1508000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1115000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1116000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1146000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>996000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>231473000000</v>
+      </c>
+      <c r="C31">
         <v>227212000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>226783000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>227414000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>237436000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>233475000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>231731000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>226126000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>225926000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>219519000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>212797000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>209395000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>207989000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>211270000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>209913000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>205669000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>202166000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>204259000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>202923000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>201668000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>201301000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>204527000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>204603000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>201645000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>199944000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>201205000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>199131000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>196249000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>192625000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>190571000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>185067000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>180642000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>175452000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>173797000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>169518000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>161549000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>151865000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>147263000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>149896000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>148988000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>-1040760000000</v>
+      </c>
+      <c r="C32">
         <v>-877274000000.0001</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-887640000000.0001</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-993252000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-862820000000.0001</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>-954153000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-889695000000.0001</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-889181000000.0001</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-756377000000.0001</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>-755586000000.0001</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-676087000000.0001</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>-580234000000.0001</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-590977000000.0001</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-713391000000.0001</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-770406000000.0001</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-844253000000.0001</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-732064000000.0001</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-786432000000.0001</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-777370000000.0001</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-800253000000.0001</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-727490000000.0001</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-745375000000.0001</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-750886000000.0001</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-739640000000.0001</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-696487000000.0001</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-691167000000.0001</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-667793000000.0001</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-657324000000.0001</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-607163000000.0001</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-657510000000.0001</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-696868000000.0001</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-837886000000.0001</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-820498000000.0001</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-764064000000.0001</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-757482000000.0001</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-732761000000.0001</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-682719000000.0001</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-727565000000.0001</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-697912000000.0001</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-656932000000.0001</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>295865000000</v>
+      </c>
+      <c r="C33">
         <v>575278000000.0001</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>569353000000.0001</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>574683000000.0001</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>573287000000.0001</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>603778000000.0001</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>597301000000.0001</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>638424000000.0001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>570642000000.0001</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>557607000000.0001</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>600664000000.0001</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>584460000000.0001</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>291498000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>296472000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>288869000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>290893000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>282031000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>270124000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>273114000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>274449000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>284080000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>318301000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>323909000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>313834000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>295245000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>333897000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>315572000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>310457000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>309756000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>320119000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>316754000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>309643000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>306601000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>300613000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>304642000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>306463000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>295883000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>293808000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>296597000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>295561000000</v>
       </c>
     </row>
